--- a/subito_searcher/subito.xlsx
+++ b/subito_searcher/subito.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,6 +40,14 @@
       <sz val="18"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -58,19 +66,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -433,10 +444,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -525,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vetrina legno</t>
+          <t>Vetrina legno RE</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -568,7 +579,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vetrina legno</t>
+          <t>Vetrina legno MO</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -611,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vetrina legno</t>
+          <t>Vetrina legno PR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -643,6 +654,393 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=vetrina+legno&amp;ps=25&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Armadio legno RE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>200</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Arredamento e Casalinghi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>armadio legno</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Armadio legno MO</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>200</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arredamento e Casalinghi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>armadio legno</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Armadio legno PR</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Arredamento e Casalinghi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>armadio legno</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">x </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Arredamento e Casalinghi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>scrivania legno</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">x </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Arredamento e Casalinghi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>scrivania legno</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">x </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="n">
+        <v>200</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Arredamento e Casalinghi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>scrivania legno</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Arredamento e Casalinghi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>tavolo sedie</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Arredamento e Casalinghi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>tavolo sedie</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Arredamento e Casalinghi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>tavolo sedie</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
         </is>
       </c>
     </row>
@@ -653,25 +1051,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD1048576"/>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="11.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="36.6640625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="5.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="38.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="22.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="97.5" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="101.83203125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="99.83203125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="102.83203125" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customFormat="1" customHeight="1" s="2">
@@ -1410,7 +1808,7018 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Armadio di legno</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>190 €</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-di-legno-reggio-emilia-408002732.htm</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Appendiabiti ripiegabile Foppapedretti Snake 90</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>130 €</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/appendiabiti-ripiegabile-foppapedretti-snake-90-reggio-emilia-340318711.htm</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Camera singola</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/camera-singola-reggio-emilia-407721746.htm</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Armadio</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-reggio-emilia-365535233.htm</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Armadio vintage due ante</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Casalgrande (RE)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-vintage-due-ante-reggio-emilia-415697382.htm</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Camera da letto completa in legno</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Quattro Castella (RE)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/camera-da-letto-completa-in-legno-reggio-emilia-407751644.htm</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Armadio in legno 4 ante</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Cavriago (RE)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-in-legno-4-ante-reggio-emilia-413926012.htm</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Armadio</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Vezzano sul Crostolo (RE)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-reggio-emilia-413795882.htm</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Armadio 2 ante impiallacciato color legno</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Correggio (RE)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-2-ante-impiallacciato-color-legno-reggio-emilia-337245304.htm</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Armadio a 6 ante</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-a-6-ante-reggio-emilia-411774964.htm</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Armadio 4 ante</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-4-ante-reggio-emilia-409912716.htm</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Armadio con specchio</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-con-specchio-reggio-emilia-385298402.htm</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Armadio a 5 ante in legno</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-a-5-ante-in-legno-reggio-emilia-408870697.htm</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Armadio a 3 ante in legno, stile antico</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-a-3-ante-in-legno-stile-antico-reggio-emilia-408867222.htm</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Armadio in legno</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-in-legno-modena-408823407.htm</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Camera matrimoniale legno</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Medolla (MO)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/camera-matrimoniale-legno-modena-407341811.htm</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-legno-modena-415527316.htm</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-legno-modena-415523976.htm</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Armadio anni 50/60</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>160 €</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Formigine (MO)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-anni-50-60-modena-414776977.htm</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Camera da letto anni 70</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/camera-da-letto-anni-70-modena-414595319.htm</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Armadio vintage a sei ante in legno</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>190 €</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-vintage-a-sei-ante-in-legno-modena-414517459.htm</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Armadio</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>San Prospero (MO)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-modena-414517135.htm</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Specchio vintage con cornice in legno</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>75 €</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/specchio-vintage-con-cornice-in-legno-modena-414516616.htm</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Cassettiera vintage in legno retrò</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/cassettiera-vintage-in-legno-retro-modena-414515027.htm</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Elettrodomestici e mobili vari</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/elettrodomestici-e-mobili-vari-modena-414485337.htm</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Cameretta ragazzi</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Nonantola (MO)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/cameretta-ragazzi-modena-414110317.htm</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Armadio grande</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Finale Emilia (MO)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-grande-modena-414009424.htm</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Armadio usato</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Savignano sul Panaro (MO)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-usato-modena-413929463.htm</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Cameratta completa</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>San Cesario sul Panaro (MO)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/cameratta-completa-modena-404962034.htm</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Armadio a 2 ante scorrevoli</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-a-2-ante-scorrevoli-modena-412800088.htm</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Armadio in noce ad angolo</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sassuolo (MO)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-in-noce-ad-angolo-modena-369679446.htm</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Camera da letto completa stile classico</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Nonantola (MO)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/camera-da-letto-completa-stile-classico-modena-412214475.htm</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Armadio</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-modena-412111736.htm</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Armadio da ingresso</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-da-ingresso-modena-411655269.htm</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Stock di mobili da ufficio-casa originali anni 60</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/stock-di-mobili-da-ufficio-casa-originali-anni-60-modena-411553431.htm</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Armadio</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>180 €</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Sassuolo (MO)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-modena-410925938.htm</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Armadio Clever e zona studio Ikea</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>199 €</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Pavullo nel Frignano (MO)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-clever-e-zona-studio-ikea-modena-401504123.htm</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Armadio Bianco scorrevole</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>135 €</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Castelfranco Emilia (MO)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-bianco-scorrevole-modena-410395211.htm</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mobili per camera bambini</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>160 €</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Marano sul Panaro (MO)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/mobili-per-camera-bambini-modena-180166079.htm</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Comò in legno intarsiato e vetro (1962)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/como-in-legno-intarsiato-e-vetro-1962-modena-409732746.htm</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Camera da letto completa</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/camera-da-letto-completa-modena-408377106.htm</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Armadio matrimoniale con due comodini</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Castelfranco Emilia (MO)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-matrimoniale-con-due-comodini-modena-408348199.htm</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Armadio</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-parma-391806123.htm</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Armadio</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Torrile (PR)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-parma-407672800.htm</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Armadio antico in legno</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-antico-in-legno-parma-415494540.htm</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Mobile da ingresso + spazio per attaccapanni</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/mobile-da-ingresso-spazio-per-attaccapanni-parma-415092885.htm</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Mobile armadio letto</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>170 €</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/mobile-armadio-letto-parma-405931592.htm</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Armadio antico in legno in perfetto stato</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Salsomaggiore Terme (PR)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-antico-in-legno-in-perfetto-stato-parma-414524890.htm</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Armadio in legno molto capiente</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-in-legno-molto-capiente-parma-413958107.htm</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Armadio bianco</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-bianco-parma-413354625.htm</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Armadio legno H262 L89 P59</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sorbolo Mezzani (PR)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-legno-h262-l89-p59-parma-413017001.htm</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Armadio in legno</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Sala Baganza (PR)</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-in-legno-parma-401792830.htm</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Armadio '800</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-800-parma-410066798.htm</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Armadio in legno</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>180 €</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-in-legno-parma-409735620.htm</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Vetrina legno</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Mobiletto in legno</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Sorbolo Mezzani (PR)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/mobiletto-in-legno-parma-408222615.htm</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=vetrina+legno&amp;ps=25&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Armadio in legno con rivestimento floreale</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>130 €</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-in-legno-con-rivestimento-floreale-modena-416370720.htm</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Armadio legno</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Armadio Legno 6 Ante</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>140 €</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Castelfranco Emilia (MO)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-legno-6-ante-modena-416368442.htm</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Scrivania vintage anni 60 legno e ferro</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-vintage-anni-60-legno-e-ferro-reggio-emilia-416213407.htm</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Scrivania in legno</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-in-legno-reggio-emilia-406742735.htm</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Scrivania-libreria per bambini e ragazzi</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Fabbrico (RE)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-libreria-per-bambini-e-ragazzi-reggio-emilia-414746653.htm</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Scrivania + poltrona</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>179 €</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-poltrona-reggio-emilia-413950173.htm</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Mappamondo stile vintage da scrivania</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/mappamondo-stile-vintage-da-scrivania-reggio-emilia-404866418.htm</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Scrivania in legno</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Guastalla (RE)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-in-legno-reggio-emilia-340382912.htm</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Scrivania</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Guastalla (RE)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-reggio-emilia-404309229.htm</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Scrivania</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Correggio (RE)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-reggio-emilia-404237482.htm</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Scrivania a scomparsa in legno</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-a-scomparsa-in-legno-reggio-emilia-396370120.htm</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Scrivania e comodino legno midollino rovere scuro</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-e-comodino-legno-midollino-rovere-scuro-reggio-emilia-412576436.htm</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Scrivania</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-reggio-emilia-387893390.htm</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Scrivani Legno 5 Cassetti</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Scandiano (RE)</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivani-legno-5-cassetti-reggio-emilia-412094881.htm</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Scrivania</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Scandiano (RE)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-reggio-emilia-411683961.htm</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Scrivania estendibile in legno</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-estendibile-in-legno-reggio-emilia-411513174.htm</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Orologio da scrivania</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Rubiera (RE)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/orologio-da-scrivania-reggio-emilia-335770968.htm</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Scrivania Secrétaire MAISON DU MONDE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>149 €</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-secretaire-maison-du-monde-reggio-emilia-402027124.htm</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Poltrona in legno</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/poltrona-in-legno-reggio-emilia-401594560.htm</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Scrivania Ikea legno colore scuro con venature</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-ikea-legno-colore-scuro-con-venature-reggio-emilia-401141003.htm</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Camera ragazzi</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/camera-ragazzi-reggio-emilia-409999417.htm</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Scrivania /tavoli lavoro pc</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-tavoli-lavoro-pc-reggio-emilia-409897803.htm</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Scrivania</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Rubiera (RE)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-reggio-emilia-409219604.htm</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Scrivania e comodino</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Poviglio (RE)</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-e-comodino-reggio-emilia-408787394.htm</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Scrivania in Laminam</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Albinea (RE)</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-in-laminam-reggio-emilia-408421385.htm</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Mappamondo legno</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Castelfranco Emilia (MO)</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/mappamondo-legno-modena-399052276.htm</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Scrivania da mobile originale Singer anni 60'</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>140 €</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-da-mobile-originale-singer-anni-60-modena-415749020.htm</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Divano letto   vetrina   scrivania</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/divano-letto-vetrina-scrivania-modena-415523504.htm</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Sedia da scrivania rossa</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/sedia-da-scrivania-rossa-modena-364065214.htm</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Scaffalature- librerie</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Vignola (MO)</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scaffalature-librerie-modena-414401698.htm</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Scrivania</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Soliera (MO)</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-modena-413937605.htm</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Scrivania tavolo grande + sedia legno</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-tavolo-grande-sedia-legno-modena-413867700.htm</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Scrivania completa di portastampante</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-completa-di-portastampante-modena-389406012.htm</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Scrivania dattilo e sedia girevole anni 70</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>75 €</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-dattilo-e-sedia-girevole-anni-70-modena-379426603.htm</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Scrivania dattilo anni '70</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-dattilo-anni-70-modena-361690523.htm</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Bureau scrivania mobile</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Finale Emilia (MO)</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/bureau-scrivania-mobile-modena-412600118.htm</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Scrivania</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-modena-411971943.htm</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Scrivania e libreria</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-e-libreria-modena-411958951.htm</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Scrivania Bamboo ikea</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-bamboo-ikea-modena-411811402.htm</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Mobile/scrivania</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/mobile-scrivania-modena-402156639.htm</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Scrivania con cassetto in legno antica</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-con-cassetto-in-legno-antica-modena-410162249.htm</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Scrivania bambino legno bianca</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Maranello (MO)</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-bambino-legno-bianca-modena-394076625.htm</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Scrivania tutto legno naturale 2 cassetti bimbi</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>85 €</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-tutto-legno-naturale-2-cassetti-bimbi-modena-394156508.htm</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Tavolo in legno</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Mirandola (MO)</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-in-legno-modena-359004480.htm</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Scrivania scrittoio vintage</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Soliera (MO)</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-scrittoio-vintage-modena-409864272.htm</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Scrivania/tavolino in ciliegio con cassetto</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-tavolino-in-ciliegio-con-cassetto-modena-374340507.htm</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Mobile ufficio</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>65 €</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/mobile-ufficio-modena-323367549.htm</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Scrivania Vintage</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Spilamberto (MO)</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-vintage-modena-408878813.htm</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Scrivania</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>105 €</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-modena-408392897.htm</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Scrivania</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Torrile (PR)</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-parma-407673266.htm</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Specchiera vintage da comò realizzata a mano</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/specchiera-vintage-da-como-realizzata-a-mano-parma-408197552.htm</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Scrivania mod. Sixbros legno e metallo</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-mod-sixbros-legno-e-metallo-parma-415311137.htm</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Tavolo scrivania</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Colorno (PR)</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-scrivania-parma-414643853.htm</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Scrivania in legno massello</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-in-legno-massello-parma-413582923.htm</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Scrivania con cassettiera</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-con-cassettiera-parma-412470805.htm</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Scrivania in legno</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>39 €</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-in-legno-parma-395688990.htm</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Scrivania posto singolo</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Busseto (PR)</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-posto-singolo-parma-411700762.htm</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Scrivania in legno</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Langhirano (PR)</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-in-legno-parma-410773271.htm</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Scrivania in legno con penisola</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>99 €</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Fontanellato (PR)</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-in-legno-con-penisola-parma-386984730.htm</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Lampada artigianale stile industry con catena moto</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Traversetolo (PR)</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/lampada-artigianale-stile-industry-con-catena-moto-parma-401099039.htm</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Scrivania da ufficio o camera</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-da-ufficio-o-camera-parma-409844442.htm</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Tavolo/scrivania primi del 900</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>135 €</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-scrivania-primi-del-900-parma-408869433.htm</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Scrivania</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>160 €</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-parma-399818830.htm</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Scrivania per ragazzo/a</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Montechiarugolo (PR)</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-per-ragazzo-a-parma-408684849.htm</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Armadio legno MO</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Armadio</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>105 €</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Formigine (MO)</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-modena-416472399.htm</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Armadio legno RE</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Camera matrimoniale in legno massello- (RE)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Gattatico (RE)</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/camera-matrimoniale-in-legno-massello-re-reggio-emilia-416639014.htm</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Armadio legno RE</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Camera vecchia</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Castellarano (RE)</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/camera-vecchia-reggio-emilia-416524464.htm</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Armadio legno MO</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Mobilio per camera singola in buono stato</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>180 €</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Vignola (MO)</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/mobilio-per-camera-singola-in-buono-stato-modena-416627093.htm</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Armadio legno MO</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Armadio 6 ante</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Bomporto (MO)</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-6-ante-modena-367637699.htm</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Armadio legno MO</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Armadio Classico 6 Ante</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>140 €</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Castelfranco Emilia (MO)</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-classico-6-ante-modena-416368442.htm</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Armadio legno MO</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Camera matrimoniale</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Formigine (MO)</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/camera-matrimoniale-modena-416810105.htm</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Armadio legno MO</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Armadio</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Castelvetro di Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-modena-416796034.htm</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Armadio legno PR</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Armadio anni '50 in radica laccata</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Polesine Zibello (PR)</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-anni-50-in-radica-laccata-parma-416795453.htm</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Armadio legno PR</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Letto anni '50 in radica</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Polesine Zibello (PR)</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/letto-anni-50-in-radica-parma-416791904.htm</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Scrivania legno RE</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Scrivania antica</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-antica-reggio-emilia-416762417.htm</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Armadio legno PR</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Armadio componibile ad angolo</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Langhirano (PR)</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-componibile-ad-angolo-parma-416835907.htm</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Scrivania legno PR</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Scrivania legno</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Collecchio (PR)</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-legno-parma-416851296.htm</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Vetrina legno RE</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Vetrina di legno</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/vetrina-di-legno-reggio-emilia-417012653.htm</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=vetrina+legno&amp;ps=25&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Armadio legno RE</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Armadio in legno</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-in-legno-reggio-emilia-416984675.htm</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Armadio legno MO</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Armadio grande</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Soliera (MO)</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-grande-modena-417010916.htm</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=armadio+legno&amp;ps=60&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Scrivania legno MO</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Scrivania in legno</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Maranello (MO)</t>
+        </is>
+      </c>
+      <c r="E159" s="4" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/scrivania-in-legno-modena-416983909.htm</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=scrivania+legno&amp;ps=30&amp;pe=200</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Tavolo</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-reggio-emilia-416949046.htm</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Sedia per giardino ufficio casa</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Correggio (RE)</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/sedia-per-giardino-ufficio-casa-reggio-emilia-391359600.htm</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Tavolo con sedie</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Campagnola Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-con-sedie-reggio-emilia-416873713.htm</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Tavolo e sedie da giardino</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-e-sedie-da-giardino-reggio-emilia-416794224.htm</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Tavolo allungabile + 4 sedie</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Scandiano (RE)</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-allungabile-4-sedie-reggio-emilia-375048714.htm</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Tavolo in legno</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Castellarano (RE)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-in-legno-reggio-emilia-416524440.htm</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Tavolo allungabile</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Rio Saliceto (RE)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-allungabile-reggio-emilia-416069308.htm</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Tavolo di vetro</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Rubiera (RE)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-di-vetro-reggio-emilia-415879049.htm</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Vendersi</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>98 €</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Viano (RE)</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/vendersi-reggio-emilia-415234869.htm</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Tavolino e sedia</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Poviglio (RE)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolino-e-sedia-reggio-emilia-406581890.htm</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>4 sedie in legno massiccio nuove</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/4-sedie-in-legno-massiccio-nuove-reggio-emilia-414532324.htm</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Tavolo + sedie</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Bagnolo in Piano (RE)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-sedie-reggio-emilia-414441413.htm</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Vezzano sul Crostolo (RE)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/sala-reggio-emilia-414018048.htm</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Tavolo rotondo bianco piu 4 sedie</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>95 €</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Brescello (RE)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-rotondo-bianco-piu-4-sedie-reggio-emilia-413985127.htm</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Tavolo + 4 sedie</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-4-sedie-reggio-emilia-413838168.htm</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>10 Sedie e 2 tavoli Coca Cola</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/10-sedie-e-2-tavoli-coca-cola-reggio-emilia-413228574.htm</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Tavolo allungabile in vero legno</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>85 €</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-allungabile-in-vero-legno-reggio-emilia-412812436.htm</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>6 sedie più tavolo da giardino</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Scandiano (RE)</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/6-sedie-piu-tavolo-da-giardino-reggio-emilia-403857423.htm</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Tavolo e 4 sedie</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-e-4-sedie-reggio-emilia-412477047.htm</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Vendita tavolo con 4 sedie</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/vendita-tavolo-con-4-sedie-reggio-emilia-411866719.htm</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Tavolo con cassetto con 4 sedie</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-con-cassetto-con-4-sedie-reggio-emilia-411733692.htm</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Tavolo allungabile in legno laminato noce 6 sedie</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-allungabile-in-legno-laminato-noce-6-sedie-reggio-emilia-411732031.htm</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Tavolo con sedie vintage</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-con-sedie-vintage-reggio-emilia-411632210.htm</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Tavolino per esterno con 2 sedie</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolino-per-esterno-con-2-sedie-reggio-emilia-411625112.htm</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Tavola</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavola-reggio-emilia-411280947.htm</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Tavolo da 4 con sedie e porta tv</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Campegine (RE)</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-da-4-con-sedie-e-porta-tv-reggio-emilia-411280099.htm</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Tavolo cucina in formica anni 70 modernariato</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>San Polo d'Enza (RE)</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-cucina-in-formica-anni-70-modernariato-reggio-emilia-401789398.htm</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Tavolo con sedie</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-con-sedie-reggio-emilia-386678503.htm</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Tavolo sedie RE</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Tavolino più 2 sedie</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Reggio nell'Emilia (RE)</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolino-piu-2-sedie-reggio-emilia-411045350.htm</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/reggio-emilia/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Tavolo da giardino</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-da-giardino-modena-417011995.htm</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Sedie e tavolo in vimini</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Castelnuovo Rangone (MO)</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/sedie-e-tavolo-in-vimini-modena-408869027.htm</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Tavolo allungabile</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Castelfranco Emilia (MO)</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-allungabile-modena-416761419.htm</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Tavolo rotondo + 4 sedie stile antico</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-rotondo-4-sedie-stile-antico-modena-408746344.htm</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Tavolo giardino</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-giardino-modena-416719990.htm</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Tavolo rotondo allungabile e 4 sedie</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Sassuolo (MO)</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-rotondo-allungabile-e-4-sedie-modena-399678420.htm</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Tavolo e sedie per sala</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Castelfranco Emilia (MO)</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-e-sedie-per-sala-modena-408404969.htm</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Tavolo e sedie</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-e-sedie-modena-323619298.htm</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Tavolo in noce</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Bomporto (MO)</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-in-noce-modena-399251252.htm</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Tavolo in legno apribile</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-in-legno-apribile-modena-416152143.htm</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Tavolo in legno allungabile con sedie</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-in-legno-allungabile-con-sedie-modena-416147694.htm</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Tavolo</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Novi di Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-modena-416084316.htm</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Tavolo tondo allungabile</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Maranello (MO)</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-tondo-allungabile-modena-416031888.htm</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Sala pranzo tavola con 4 sedie e credenza</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>95 €</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Finale Emilia (MO)</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/sala-pranzo-tavola-con-4-sedie-e-credenza-modena-313747507.htm</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Sala completa</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Formigine (MO)</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/sala-completa-modena-244106451.htm</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Tavolo in rovere tirolese e panca</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Ravarino (MO)</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-in-rovere-tirolese-e-panca-modena-415671446.htm</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Tavolo da cucina con 4 sedie abbinate</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Finale Emilia (MO)</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-da-cucina-con-4-sedie-abbinate-modena-415549127.htm</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Tavolo in legno molto ben conservato</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Castelfranco Emilia (MO)</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-in-legno-molto-ben-conservato-modena-415211532.htm</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Tavolo per 6 persone</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-per-6-persone-modena-414983221.htm</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Tavolo e sedie giocattolo per bambini</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Maranello (MO)</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-e-sedie-giocattolo-per-bambini-modena-414973761.htm</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Tavolo con 6 sedie buono stato</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Castelnuovo Rangone (MO)</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-con-6-sedie-buono-stato-modena-414881314.htm</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Tavolino con sedie</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Modena (MO)</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolino-con-sedie-modena-406584116.htm</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Tavolo in legno con 6 sedie</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Medolla (MO)</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-in-legno-con-6-sedie-modena-405837635.htm</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Tavolo e sedie scuola</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Castelnuovo Rangone (MO)</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-e-sedie-scuola-modena-405688011.htm</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Tavolo con sedie</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Vignola (MO)</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-con-sedie-modena-371466579.htm</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Tavolo in legno</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Castelfranco Emilia (MO)</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-in-legno-modena-382329169.htm</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Tavolo cucina bianco completo di 6 sedie</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-cucina-bianco-completo-di-6-sedie-modena-414113278.htm</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Tavolo da cucina con 4 sedie</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Pavullo nel Frignano (MO)</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-da-cucina-con-4-sedie-modena-405307861.htm</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Tavolo sedie MO</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Set vimini giardino</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Carpi (MO)</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/set-vimini-giardino-modena-404763484.htm</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/modena/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Tavolo per esterno</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-per-esterno-parma-416848415.htm</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Sedie e tavolo</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/sedie-e-tavolo-parma-357625774.htm</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Tavolo in formica anni '60</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Polesine Zibello (PR)</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-in-formica-anni-60-parma-416786133.htm</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Sedie impagliate</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Medesano (PR)</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/sedie-impagliate-parma-415903160.htm</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2 sedie da cucina, in legno massiccio</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Felino (PR)</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/2-sedie-da-cucina-in-legno-massiccio-parma-415153364.htm</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Tavolo con 4 sedie</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-con-4-sedie-parma-398003457.htm</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Tavolo e 4 sedie da giardino</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Noceto (PR)</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-e-4-sedie-da-giardino-parma-414088807.htm</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Tavolo e 4 sedie</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-e-4-sedie-parma-413780684.htm</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Sedie cucina anni 70</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/sedie-cucina-anni-70-parma-413610837.htm</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Tavolo e 4 sedie</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Salsomaggiore Terme (PR)</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-e-4-sedie-parma-413533069.htm</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Tavolo in legno e sedie</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-in-legno-e-sedie-parma-413522563.htm</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Tavolo e 6 sedie</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Bore (PR)</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-e-6-sedie-parma-397024875.htm</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Armadio e altri mobili</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/armadio-e-altri-mobili-parma-413433606.htm</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Tavolo con quattro sedie</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Fidenza (PR)</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-con-quattro-sedie-parma-412694055.htm</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Tavolo</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Fidenza (PR)</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-parma-411922971.htm</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Tavolo in legno</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-in-legno-parma-377897820.htm</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Tavolo rotondo in legno</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-rotondo-in-legno-parma-411647938.htm</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Tavolo da cucina con sedie</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Collecchio (PR)</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-da-cucina-con-sedie-parma-411563774.htm</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Tavolo x2</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Collecchio (PR)</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-x2-parma-410731419.htm</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Tavolo con 4 sedie</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-con-4-sedie-parma-359787272.htm</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Tavolo alto LONG-ISLAND</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-alto-long-island-parma-367216339.htm</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Tavolo e sedie anni 50</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Parma (PR)</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-e-sedie-anni-50-parma-409687216.htm</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Tavolino con sedia</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Fidenza (PR)</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolino-con-sedia-parma-409682239.htm</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Tavolo con sedie</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Polesine Zibello (PR)</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/tavolo-con-sedie-parma-374989154.htm</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Tavolo sedie PR</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Set scrivania e sedia x bambini e ragazzi.nuovo</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>99 €</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Felino (PR)</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/arredamento-casalinghi/set-scrivania-e-sedia-x-bambini-e-ragazzi-nuovo-parma-409355862.htm</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>https://www.subito.it/annunci-emilia-romagna/vendita/arredamento-casalinghi/parma/?q=tavolo+sedie&amp;ps=20&amp;pe=100</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E159" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
